--- a/xlsx/nor_oda_subsahara_fiveyear.xlsx
+++ b/xlsx/nor_oda_subsahara_fiveyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 inneholder data om norsk øremerket bistand til Afrika sør for Sahara. 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 inneholder data om norsk øremerket geografisk spesifisert bistand til Afrika sør for Sahara. 2020-2024. Beløp er utbetalinger i NOK mrd. og prosentandel av geografisk spesifisert bistand.</t>
         </is>
       </c>
     </row>
@@ -478,13 +478,13 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>26.8575684367</v>
+        <v>14.76458643436</v>
       </c>
       <c r="C2">
         <v>6.55262208137</v>
       </c>
       <c r="D2">
-        <v>0.2439767433456878</v>
+        <v>0.4438066796182521</v>
       </c>
     </row>
     <row r="3">
@@ -492,13 +492,13 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>27.72224899785</v>
+        <v>14.1675640601</v>
       </c>
       <c r="C3">
         <v>6.54344100072</v>
       </c>
       <c r="D3">
-        <v>0.2360357199456464</v>
+        <v>0.461860696232759</v>
       </c>
     </row>
     <row r="4">
@@ -506,13 +506,13 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>37.12924243284</v>
+        <v>20.90836911692</v>
       </c>
       <c r="C4">
         <v>7.150890679</v>
       </c>
       <c r="D4">
-        <v>0.1925945753386876</v>
+        <v>0.342010925816934</v>
       </c>
     </row>
     <row r="5">
@@ -520,13 +520,13 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>45.31152998268</v>
+        <v>27.78015800265</v>
       </c>
       <c r="C5">
         <v>9.333195883</v>
       </c>
       <c r="D5">
-        <v>0.2059783875443523</v>
+        <v>0.3359662634787638</v>
       </c>
     </row>
     <row r="6">
@@ -534,13 +534,13 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>41.91466322066</v>
+        <v>26.53208613643</v>
       </c>
       <c r="C6">
         <v>7.12106825251</v>
       </c>
       <c r="D6">
-        <v>0.1698944404019446</v>
+        <v>0.2683945851785995</v>
       </c>
     </row>
   </sheetData>
